--- a/lab/lab5/lab05_Section1.xlsx
+++ b/lab/lab5/lab05_Section1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA62936-87F6-1043-8B7E-AABFD83E1FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D8483-BB33-4947-8837-1E40E7452FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Alder, Brian</t>
-  </si>
-  <si>
     <t>Alsaif, Hamdan</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Hamilton, Dennis</t>
   </si>
   <si>
-    <t>Hernandez, Jose</t>
-  </si>
-  <si>
     <t>Hilborn, Eli</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Kempisty, Connor</t>
   </si>
   <si>
-    <t>Li, Baiyang</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mackinnon, Joseph	</t>
   </si>
   <si>
@@ -147,6 +138,9 @@
   </si>
   <si>
     <t>Yu, Jiafeng</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -516,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,283 +521,289 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="B35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" tooltip="Compose email to Connor Kempisty" display="javascript://" xr:uid="{46E85C0E-175C-E547-9D29-E72A7AFF7F92}"/>
+    <hyperlink ref="A19" r:id="rId1" tooltip="Compose email to Connor Kempisty" display="javascript://" xr:uid="{46E85C0E-175C-E547-9D29-E72A7AFF7F92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab/lab5/lab05_Section1.xlsx
+++ b/lab/lab5/lab05_Section1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D8483-BB33-4947-8837-1E40E7452FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBB7B31-9E5D-AC4A-8547-561E17C6A4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
